--- a/ex09/ex09.xlsx
+++ b/ex09/ex09.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CSE\CSMC\CSMC_2021WS\ex09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21A3531-651E-49CF-A827-BE9149CDD98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1950AC42-01CF-49FB-B96D-935649983D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1_results" sheetId="14" r:id="rId1"/>
     <sheet name="P2_profile" sheetId="15" r:id="rId2"/>
     <sheet name="P2_results" sheetId="16" r:id="rId3"/>
+    <sheet name="P2_results_mod" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="37">
   <si>
     <t>Grid Size</t>
   </si>
@@ -144,6 +145,9 @@
   </si>
   <si>
     <t>start</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -7846,6 +7850,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="771646303"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -9999,7 +10004,7 @@
   <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17052,4 +17057,7527 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570BC6B0-3BD2-46C2-9B3D-C11CD0F50888}">
+  <dimension ref="B1:H366"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H335" sqref="H1:H335"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>163</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>167</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>138</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>480</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>276</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>785</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>305</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>939</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>358</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>900</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>494</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>920</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>785</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>1480</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>1143</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>2626</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>1433</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>3880</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>1685</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>4562</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>2063</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>4784</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>2913</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>5725</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>4311</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>8623</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>5943</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>13648</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>7475</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>18875</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>9095</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>22589</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>11668</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>20810</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>16098</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>20226</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>22743</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>23455</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>30543</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>34129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>38687</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>45007</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>43553</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>49969</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <v>50769</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>50068</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>62142</v>
+      </c>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45">
+        <v>49915</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>77682</v>
+      </c>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>58809</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>95776</v>
+      </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47">
+        <v>75564</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>112111</v>
+      </c>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48">
+        <v>92122</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>127750</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49">
+        <v>86615</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>145691</v>
+      </c>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50">
+        <v>73116</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50">
+        <v>170920</v>
+      </c>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51">
+        <v>60577</v>
+      </c>
+      <c r="F51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51">
+        <v>203314</v>
+      </c>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52">
+        <v>68005</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52">
+        <v>237813</v>
+      </c>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53">
+        <v>81317</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>257535</v>
+      </c>
+      <c r="H53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>88348</v>
+      </c>
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>276430</v>
+      </c>
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55">
+        <v>84841</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>298390</v>
+      </c>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56">
+        <v>71453</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>325540</v>
+      </c>
+      <c r="H56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57">
+        <v>63097</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>357747</v>
+      </c>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58">
+        <v>62888</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58">
+        <v>386738</v>
+      </c>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59">
+        <v>68513</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>410381</v>
+      </c>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60">
+        <v>70462</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60">
+        <v>429200</v>
+      </c>
+      <c r="H60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61">
+        <v>65668</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <v>449835</v>
+      </c>
+      <c r="H61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62">
+        <v>57198</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62">
+        <v>473269</v>
+      </c>
+      <c r="H62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>49885</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63">
+        <v>497713</v>
+      </c>
+      <c r="H63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64">
+        <v>47322</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>520297</v>
+      </c>
+      <c r="H64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65">
+        <v>47522</v>
+      </c>
+      <c r="F65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65">
+        <v>538937</v>
+      </c>
+      <c r="H65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66">
+        <v>46616</v>
+      </c>
+      <c r="F66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66">
+        <v>554911</v>
+      </c>
+      <c r="H66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67">
+        <v>42605</v>
+      </c>
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <v>570182</v>
+      </c>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68">
+        <v>36767</v>
+      </c>
+      <c r="F68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68">
+        <v>586259</v>
+      </c>
+      <c r="H68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69">
+        <v>32002</v>
+      </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69">
+        <v>602433</v>
+      </c>
+      <c r="H69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70">
+        <v>29340</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70">
+        <v>616798</v>
+      </c>
+      <c r="H70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71">
+        <v>27830</v>
+      </c>
+      <c r="F71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71">
+        <v>628864</v>
+      </c>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72">
+        <v>26240</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72">
+        <v>639200</v>
+      </c>
+      <c r="H72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73">
+        <v>23478</v>
+      </c>
+      <c r="F73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73">
+        <v>648800</v>
+      </c>
+      <c r="H73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74">
+        <v>20417</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74">
+        <v>658204</v>
+      </c>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75">
+        <v>17412</v>
+      </c>
+      <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75">
+        <v>667030</v>
+      </c>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>15572</v>
+      </c>
+      <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76">
+        <v>675040</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>14296</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77">
+        <v>681682</v>
+      </c>
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>13165</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78">
+        <v>687447</v>
+      </c>
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>11655</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79">
+        <v>692452</v>
+      </c>
+      <c r="G79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>9896</v>
+      </c>
+      <c r="E80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80">
+        <v>697254</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>10394</v>
+      </c>
+      <c r="E81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81">
+        <v>701743</v>
+      </c>
+      <c r="G81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <v>11069</v>
+      </c>
+      <c r="E82" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82">
+        <v>705617</v>
+      </c>
+      <c r="G82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <v>11937</v>
+      </c>
+      <c r="E83" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83">
+        <v>708909</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <v>10682</v>
+      </c>
+      <c r="E84" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84">
+        <v>711639</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <v>9290</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85">
+        <v>716011</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <v>8431</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86">
+        <v>719978</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <v>8156</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87">
+        <v>723576</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="D88">
+        <v>8476</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88">
+        <v>726693</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="D89">
+        <v>8413</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89">
+        <v>729268</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <v>7933</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90">
+        <v>732007</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <v>7086</v>
+      </c>
+      <c r="E91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91">
+        <v>734849</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+      <c r="D92">
+        <v>6365</v>
+      </c>
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92">
+        <v>737744</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+      <c r="D93">
+        <v>6097</v>
+      </c>
+      <c r="E93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93">
+        <v>740420</v>
+      </c>
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94">
+        <v>93</v>
+      </c>
+      <c r="D94">
+        <v>5962</v>
+      </c>
+      <c r="E94" t="s">
+        <v>30</v>
+      </c>
+      <c r="F94">
+        <v>742782</v>
+      </c>
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95">
+        <v>94</v>
+      </c>
+      <c r="D95">
+        <v>5839</v>
+      </c>
+      <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95">
+        <v>744830</v>
+      </c>
+      <c r="G95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <v>5362</v>
+      </c>
+      <c r="E96" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96">
+        <v>746785</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+      <c r="D97">
+        <v>4855</v>
+      </c>
+      <c r="E97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97">
+        <v>748879</v>
+      </c>
+      <c r="G97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98">
+        <v>97</v>
+      </c>
+      <c r="D98">
+        <v>4329</v>
+      </c>
+      <c r="E98" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98">
+        <v>750792</v>
+      </c>
+      <c r="G98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
+      </c>
+      <c r="D99">
+        <v>3966</v>
+      </c>
+      <c r="E99" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99">
+        <v>752624</v>
+      </c>
+      <c r="G99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100">
+        <v>3806</v>
+      </c>
+      <c r="E100" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100">
+        <v>754241</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <v>3569</v>
+      </c>
+      <c r="E101" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101">
+        <v>755647</v>
+      </c>
+      <c r="G101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102">
+        <v>101</v>
+      </c>
+      <c r="D102">
+        <v>5456</v>
+      </c>
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102">
+        <v>756953</v>
+      </c>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103">
+        <v>102</v>
+      </c>
+      <c r="D103">
+        <v>6901</v>
+      </c>
+      <c r="E103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103">
+        <v>758207</v>
+      </c>
+      <c r="G103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104">
+        <v>103</v>
+      </c>
+      <c r="D104">
+        <v>8325</v>
+      </c>
+      <c r="E104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104">
+        <v>759453</v>
+      </c>
+      <c r="G104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105">
+        <v>104</v>
+      </c>
+      <c r="D105">
+        <v>7496</v>
+      </c>
+      <c r="E105" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105">
+        <v>760522</v>
+      </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106">
+        <v>105</v>
+      </c>
+      <c r="D106">
+        <v>6903</v>
+      </c>
+      <c r="E106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106">
+        <v>763663</v>
+      </c>
+      <c r="G106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107">
+        <v>106</v>
+      </c>
+      <c r="D107">
+        <v>5470</v>
+      </c>
+      <c r="E107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107">
+        <v>766354</v>
+      </c>
+      <c r="G107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108">
+        <v>107</v>
+      </c>
+      <c r="D108">
+        <v>4532</v>
+      </c>
+      <c r="E108" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108">
+        <v>768847</v>
+      </c>
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109">
+        <v>108</v>
+      </c>
+      <c r="D109">
+        <v>4018</v>
+      </c>
+      <c r="E109" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109">
+        <v>771159</v>
+      </c>
+      <c r="G109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110">
+        <v>109</v>
+      </c>
+      <c r="D110">
+        <v>4366</v>
+      </c>
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110">
+        <v>773257</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111">
+        <v>110</v>
+      </c>
+      <c r="D111">
+        <v>4240</v>
+      </c>
+      <c r="E111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111">
+        <v>774317</v>
+      </c>
+      <c r="G111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112">
+        <v>111</v>
+      </c>
+      <c r="D112">
+        <v>3602</v>
+      </c>
+      <c r="E112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112">
+        <v>775691</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113">
+        <v>112</v>
+      </c>
+      <c r="D113">
+        <v>4570</v>
+      </c>
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113">
+        <v>777275</v>
+      </c>
+      <c r="G113" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114">
+        <v>113</v>
+      </c>
+      <c r="D114">
+        <v>5433</v>
+      </c>
+      <c r="E114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114">
+        <v>778683</v>
+      </c>
+      <c r="G114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115">
+        <v>114</v>
+      </c>
+      <c r="D115">
+        <v>6637</v>
+      </c>
+      <c r="E115" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115">
+        <v>779931</v>
+      </c>
+      <c r="G115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116">
+        <v>115</v>
+      </c>
+      <c r="D116">
+        <v>6377</v>
+      </c>
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116">
+        <v>780877</v>
+      </c>
+      <c r="G116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117">
+        <v>116</v>
+      </c>
+      <c r="D117">
+        <v>6013</v>
+      </c>
+      <c r="E117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117">
+        <v>783253</v>
+      </c>
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118">
+        <v>117</v>
+      </c>
+      <c r="D118">
+        <v>5966</v>
+      </c>
+      <c r="E118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118">
+        <v>785364</v>
+      </c>
+      <c r="G118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119">
+        <v>118</v>
+      </c>
+      <c r="D119">
+        <v>4773</v>
+      </c>
+      <c r="E119" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119">
+        <v>787514</v>
+      </c>
+      <c r="G119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120">
+        <v>119</v>
+      </c>
+      <c r="D120">
+        <v>4157</v>
+      </c>
+      <c r="E120" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120">
+        <v>789630</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121">
+        <v>120</v>
+      </c>
+      <c r="D121">
+        <v>3126</v>
+      </c>
+      <c r="E121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121">
+        <v>791377</v>
+      </c>
+      <c r="G121" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122">
+        <v>121</v>
+      </c>
+      <c r="D122">
+        <v>3205</v>
+      </c>
+      <c r="E122" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122">
+        <v>793480</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C123">
+        <v>122</v>
+      </c>
+      <c r="D123">
+        <v>3016</v>
+      </c>
+      <c r="E123" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123">
+        <v>794403</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124">
+        <v>123</v>
+      </c>
+      <c r="D124">
+        <v>3962</v>
+      </c>
+      <c r="E124" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124">
+        <v>795534</v>
+      </c>
+      <c r="G124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125">
+        <v>124</v>
+      </c>
+      <c r="D125">
+        <v>4705</v>
+      </c>
+      <c r="E125" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125">
+        <v>796606</v>
+      </c>
+      <c r="G125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126">
+        <v>125</v>
+      </c>
+      <c r="D126">
+        <v>4972</v>
+      </c>
+      <c r="E126" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126">
+        <v>797608</v>
+      </c>
+      <c r="G126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127">
+        <v>126</v>
+      </c>
+      <c r="D127">
+        <v>4193</v>
+      </c>
+      <c r="E127" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127">
+        <v>798550</v>
+      </c>
+      <c r="G127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128">
+        <v>127</v>
+      </c>
+      <c r="D128">
+        <v>3591</v>
+      </c>
+      <c r="E128" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128">
+        <v>800568</v>
+      </c>
+      <c r="G128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129">
+        <v>128</v>
+      </c>
+      <c r="D129">
+        <v>3791</v>
+      </c>
+      <c r="E129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129">
+        <v>802313</v>
+      </c>
+      <c r="G129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130">
+        <v>129</v>
+      </c>
+      <c r="D130">
+        <v>4205</v>
+      </c>
+      <c r="E130" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130">
+        <v>803522</v>
+      </c>
+      <c r="G130" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131">
+        <v>130</v>
+      </c>
+      <c r="D131">
+        <v>4805</v>
+      </c>
+      <c r="E131" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131">
+        <v>804761</v>
+      </c>
+      <c r="G131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132">
+        <v>131</v>
+      </c>
+      <c r="D132">
+        <v>4781</v>
+      </c>
+      <c r="E132" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132">
+        <v>805904</v>
+      </c>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133">
+        <v>132</v>
+      </c>
+      <c r="D133">
+        <v>4298</v>
+      </c>
+      <c r="E133" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133">
+        <v>807313</v>
+      </c>
+      <c r="G133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134">
+        <v>133</v>
+      </c>
+      <c r="D134">
+        <v>3766</v>
+      </c>
+      <c r="E134" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134">
+        <v>808966</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135">
+        <v>134</v>
+      </c>
+      <c r="D135">
+        <v>3658</v>
+      </c>
+      <c r="E135" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135">
+        <v>810709</v>
+      </c>
+      <c r="G135" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136">
+        <v>135</v>
+      </c>
+      <c r="D136">
+        <v>4024</v>
+      </c>
+      <c r="E136" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136">
+        <v>812094</v>
+      </c>
+      <c r="G136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137">
+        <v>136</v>
+      </c>
+      <c r="D137">
+        <v>4284</v>
+      </c>
+      <c r="E137" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137">
+        <v>813264</v>
+      </c>
+      <c r="G137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138">
+        <v>137</v>
+      </c>
+      <c r="D138">
+        <v>4265</v>
+      </c>
+      <c r="E138" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138">
+        <v>814475</v>
+      </c>
+      <c r="G138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139">
+        <v>138</v>
+      </c>
+      <c r="D139">
+        <v>3857</v>
+      </c>
+      <c r="E139" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139">
+        <v>815752</v>
+      </c>
+      <c r="G139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140">
+        <v>139</v>
+      </c>
+      <c r="D140">
+        <v>3418</v>
+      </c>
+      <c r="E140" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140">
+        <v>817288</v>
+      </c>
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141">
+        <v>140</v>
+      </c>
+      <c r="D141">
+        <v>3237</v>
+      </c>
+      <c r="E141" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141">
+        <v>818759</v>
+      </c>
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142">
+        <v>141</v>
+      </c>
+      <c r="D142">
+        <v>3255</v>
+      </c>
+      <c r="E142" t="s">
+        <v>30</v>
+      </c>
+      <c r="F142">
+        <v>820017</v>
+      </c>
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143">
+        <v>142</v>
+      </c>
+      <c r="D143">
+        <v>3356</v>
+      </c>
+      <c r="E143" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143">
+        <v>821145</v>
+      </c>
+      <c r="G143" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144">
+        <v>143</v>
+      </c>
+      <c r="D144">
+        <v>3305</v>
+      </c>
+      <c r="E144" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144">
+        <v>822177</v>
+      </c>
+      <c r="G144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145">
+        <v>144</v>
+      </c>
+      <c r="D145">
+        <v>3018</v>
+      </c>
+      <c r="E145" t="s">
+        <v>30</v>
+      </c>
+      <c r="F145">
+        <v>823254</v>
+      </c>
+      <c r="G145" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146">
+        <v>145</v>
+      </c>
+      <c r="D146">
+        <v>2659</v>
+      </c>
+      <c r="E146" t="s">
+        <v>30</v>
+      </c>
+      <c r="F146">
+        <v>824400</v>
+      </c>
+      <c r="G146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147">
+        <v>146</v>
+      </c>
+      <c r="D147">
+        <v>2423</v>
+      </c>
+      <c r="E147" t="s">
+        <v>30</v>
+      </c>
+      <c r="F147">
+        <v>825533</v>
+      </c>
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148">
+        <v>147</v>
+      </c>
+      <c r="D148">
+        <v>2323</v>
+      </c>
+      <c r="E148" t="s">
+        <v>30</v>
+      </c>
+      <c r="F148">
+        <v>826559</v>
+      </c>
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149">
+        <v>148</v>
+      </c>
+      <c r="D149">
+        <v>2350</v>
+      </c>
+      <c r="E149" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149">
+        <v>827418</v>
+      </c>
+      <c r="G149" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150">
+        <v>149</v>
+      </c>
+      <c r="D150">
+        <v>2280</v>
+      </c>
+      <c r="E150" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150">
+        <v>828192</v>
+      </c>
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151">
+        <v>150</v>
+      </c>
+      <c r="D151">
+        <v>2093</v>
+      </c>
+      <c r="E151" t="s">
+        <v>30</v>
+      </c>
+      <c r="F151">
+        <v>828982</v>
+      </c>
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152">
+        <v>151</v>
+      </c>
+      <c r="D152">
+        <v>1791</v>
+      </c>
+      <c r="E152" t="s">
+        <v>30</v>
+      </c>
+      <c r="F152">
+        <v>829741</v>
+      </c>
+      <c r="G152" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153">
+        <v>152</v>
+      </c>
+      <c r="D153">
+        <v>1578</v>
+      </c>
+      <c r="E153" t="s">
+        <v>30</v>
+      </c>
+      <c r="F153">
+        <v>830542</v>
+      </c>
+      <c r="G153" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154">
+        <v>153</v>
+      </c>
+      <c r="D154">
+        <v>1521</v>
+      </c>
+      <c r="E154" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154">
+        <v>831262</v>
+      </c>
+      <c r="G154" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155">
+        <v>154</v>
+      </c>
+      <c r="D155">
+        <v>1550</v>
+      </c>
+      <c r="E155" t="s">
+        <v>30</v>
+      </c>
+      <c r="F155">
+        <v>831834</v>
+      </c>
+      <c r="G155" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156">
+        <v>155</v>
+      </c>
+      <c r="D156">
+        <v>1481</v>
+      </c>
+      <c r="E156" t="s">
+        <v>30</v>
+      </c>
+      <c r="F156">
+        <v>832333</v>
+      </c>
+      <c r="G156" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157">
+        <v>156</v>
+      </c>
+      <c r="D157">
+        <v>1345</v>
+      </c>
+      <c r="E157" t="s">
+        <v>30</v>
+      </c>
+      <c r="F157">
+        <v>832840</v>
+      </c>
+      <c r="G157" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158">
+        <v>157</v>
+      </c>
+      <c r="D158">
+        <v>1155</v>
+      </c>
+      <c r="E158" t="s">
+        <v>30</v>
+      </c>
+      <c r="F158">
+        <v>833355</v>
+      </c>
+      <c r="G158" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159">
+        <v>158</v>
+      </c>
+      <c r="D159">
+        <v>1070</v>
+      </c>
+      <c r="E159" t="s">
+        <v>30</v>
+      </c>
+      <c r="F159">
+        <v>833883</v>
+      </c>
+      <c r="G159" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160">
+        <v>159</v>
+      </c>
+      <c r="D160">
+        <v>1032</v>
+      </c>
+      <c r="E160" t="s">
+        <v>30</v>
+      </c>
+      <c r="F160">
+        <v>834321</v>
+      </c>
+      <c r="G160" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161">
+        <v>160</v>
+      </c>
+      <c r="D161">
+        <v>1007</v>
+      </c>
+      <c r="E161" t="s">
+        <v>30</v>
+      </c>
+      <c r="F161">
+        <v>834700</v>
+      </c>
+      <c r="G161" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162">
+        <v>161</v>
+      </c>
+      <c r="D162">
+        <v>932</v>
+      </c>
+      <c r="E162" t="s">
+        <v>30</v>
+      </c>
+      <c r="F162">
+        <v>835038</v>
+      </c>
+      <c r="G162" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163">
+        <v>162</v>
+      </c>
+      <c r="D163">
+        <v>832</v>
+      </c>
+      <c r="E163" t="s">
+        <v>30</v>
+      </c>
+      <c r="F163">
+        <v>835391</v>
+      </c>
+      <c r="G163" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164">
+        <v>163</v>
+      </c>
+      <c r="D164">
+        <v>729</v>
+      </c>
+      <c r="E164" t="s">
+        <v>30</v>
+      </c>
+      <c r="F164">
+        <v>835732</v>
+      </c>
+      <c r="G164" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C165">
+        <v>164</v>
+      </c>
+      <c r="D165">
+        <v>622</v>
+      </c>
+      <c r="E165" t="s">
+        <v>30</v>
+      </c>
+      <c r="F165">
+        <v>836045</v>
+      </c>
+      <c r="G165" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C166">
+        <v>165</v>
+      </c>
+      <c r="D166">
+        <v>576</v>
+      </c>
+      <c r="E166" t="s">
+        <v>30</v>
+      </c>
+      <c r="F166">
+        <v>836323</v>
+      </c>
+      <c r="G166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C167">
+        <v>166</v>
+      </c>
+      <c r="D167">
+        <v>560</v>
+      </c>
+      <c r="E167" t="s">
+        <v>30</v>
+      </c>
+      <c r="F167">
+        <v>836564</v>
+      </c>
+      <c r="G167" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C168">
+        <v>167</v>
+      </c>
+      <c r="D168">
+        <v>531</v>
+      </c>
+      <c r="E168" t="s">
+        <v>30</v>
+      </c>
+      <c r="F168">
+        <v>836774</v>
+      </c>
+      <c r="G168" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C169">
+        <v>168</v>
+      </c>
+      <c r="D169">
+        <v>491</v>
+      </c>
+      <c r="E169" t="s">
+        <v>30</v>
+      </c>
+      <c r="F169">
+        <v>836945</v>
+      </c>
+      <c r="G169" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170">
+        <v>169</v>
+      </c>
+      <c r="D170">
+        <v>432</v>
+      </c>
+      <c r="E170" t="s">
+        <v>30</v>
+      </c>
+      <c r="F170">
+        <v>837140</v>
+      </c>
+      <c r="G170" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171">
+        <v>170</v>
+      </c>
+      <c r="D171">
+        <v>396</v>
+      </c>
+      <c r="E171" t="s">
+        <v>30</v>
+      </c>
+      <c r="F171">
+        <v>837334</v>
+      </c>
+      <c r="G171" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172">
+        <v>171</v>
+      </c>
+      <c r="D172">
+        <v>349</v>
+      </c>
+      <c r="E172" t="s">
+        <v>30</v>
+      </c>
+      <c r="F172">
+        <v>837476</v>
+      </c>
+      <c r="G172" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C173">
+        <v>172</v>
+      </c>
+      <c r="D173">
+        <v>300</v>
+      </c>
+      <c r="E173" t="s">
+        <v>30</v>
+      </c>
+      <c r="F173">
+        <v>837631</v>
+      </c>
+      <c r="G173" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C174">
+        <v>173</v>
+      </c>
+      <c r="D174">
+        <v>280</v>
+      </c>
+      <c r="E174" t="s">
+        <v>30</v>
+      </c>
+      <c r="F174">
+        <v>837766</v>
+      </c>
+      <c r="G174" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C175">
+        <v>174</v>
+      </c>
+      <c r="D175">
+        <v>239</v>
+      </c>
+      <c r="E175" t="s">
+        <v>30</v>
+      </c>
+      <c r="F175">
+        <v>837872</v>
+      </c>
+      <c r="G175" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C176">
+        <v>175</v>
+      </c>
+      <c r="D176">
+        <v>210</v>
+      </c>
+      <c r="E176" t="s">
+        <v>30</v>
+      </c>
+      <c r="F176">
+        <v>837980</v>
+      </c>
+      <c r="G176" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C177">
+        <v>176</v>
+      </c>
+      <c r="D177">
+        <v>179</v>
+      </c>
+      <c r="E177" t="s">
+        <v>30</v>
+      </c>
+      <c r="F177">
+        <v>838066</v>
+      </c>
+      <c r="G177" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C178">
+        <v>177</v>
+      </c>
+      <c r="D178">
+        <v>166</v>
+      </c>
+      <c r="E178" t="s">
+        <v>30</v>
+      </c>
+      <c r="F178">
+        <v>838152</v>
+      </c>
+      <c r="G178" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C179">
+        <v>178</v>
+      </c>
+      <c r="D179">
+        <v>146</v>
+      </c>
+      <c r="E179" t="s">
+        <v>30</v>
+      </c>
+      <c r="F179">
+        <v>838219</v>
+      </c>
+      <c r="G179" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180">
+        <v>179</v>
+      </c>
+      <c r="D180">
+        <v>130</v>
+      </c>
+      <c r="E180" t="s">
+        <v>30</v>
+      </c>
+      <c r="F180">
+        <v>838276</v>
+      </c>
+      <c r="G180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C181">
+        <v>180</v>
+      </c>
+      <c r="D181">
+        <v>123</v>
+      </c>
+      <c r="E181" t="s">
+        <v>30</v>
+      </c>
+      <c r="F181">
+        <v>838331</v>
+      </c>
+      <c r="G181" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C182">
+        <v>181</v>
+      </c>
+      <c r="D182">
+        <v>115</v>
+      </c>
+      <c r="E182" t="s">
+        <v>30</v>
+      </c>
+      <c r="F182">
+        <v>838385</v>
+      </c>
+      <c r="G182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183">
+        <v>182</v>
+      </c>
+      <c r="D183">
+        <v>121</v>
+      </c>
+      <c r="E183" t="s">
+        <v>30</v>
+      </c>
+      <c r="F183">
+        <v>838422</v>
+      </c>
+      <c r="G183" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184">
+        <v>183</v>
+      </c>
+      <c r="D184">
+        <v>97</v>
+      </c>
+      <c r="E184" t="s">
+        <v>30</v>
+      </c>
+      <c r="F184">
+        <v>838461</v>
+      </c>
+      <c r="G184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C185">
+        <v>184</v>
+      </c>
+      <c r="D185">
+        <v>92</v>
+      </c>
+      <c r="E185" t="s">
+        <v>30</v>
+      </c>
+      <c r="F185">
+        <v>838508</v>
+      </c>
+      <c r="G185" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186">
+        <v>185</v>
+      </c>
+      <c r="D186">
+        <v>61</v>
+      </c>
+      <c r="E186" t="s">
+        <v>30</v>
+      </c>
+      <c r="F186">
+        <v>838537</v>
+      </c>
+      <c r="G186" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C187">
+        <v>186</v>
+      </c>
+      <c r="D187">
+        <v>48</v>
+      </c>
+      <c r="E187" t="s">
+        <v>30</v>
+      </c>
+      <c r="F187">
+        <v>838582</v>
+      </c>
+      <c r="G187" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188">
+        <v>187</v>
+      </c>
+      <c r="D188">
+        <v>45</v>
+      </c>
+      <c r="E188" t="s">
+        <v>30</v>
+      </c>
+      <c r="F188">
+        <v>838605</v>
+      </c>
+      <c r="G188" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C189">
+        <v>188</v>
+      </c>
+      <c r="D189">
+        <v>49</v>
+      </c>
+      <c r="E189" t="s">
+        <v>30</v>
+      </c>
+      <c r="F189">
+        <v>838629</v>
+      </c>
+      <c r="G189" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C190">
+        <v>189</v>
+      </c>
+      <c r="D190">
+        <v>65</v>
+      </c>
+      <c r="E190" t="s">
+        <v>30</v>
+      </c>
+      <c r="F190">
+        <v>838643</v>
+      </c>
+      <c r="G190" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C191">
+        <v>190</v>
+      </c>
+      <c r="D191">
+        <v>51</v>
+      </c>
+      <c r="E191" t="s">
+        <v>30</v>
+      </c>
+      <c r="F191">
+        <v>838653</v>
+      </c>
+      <c r="G191" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C192">
+        <v>191</v>
+      </c>
+      <c r="D192">
+        <v>45</v>
+      </c>
+      <c r="E192" t="s">
+        <v>30</v>
+      </c>
+      <c r="F192">
+        <v>838674</v>
+      </c>
+      <c r="G192" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193">
+        <v>192</v>
+      </c>
+      <c r="D193">
+        <v>26</v>
+      </c>
+      <c r="E193" t="s">
+        <v>30</v>
+      </c>
+      <c r="F193">
+        <v>838692</v>
+      </c>
+      <c r="G193" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C194">
+        <v>193</v>
+      </c>
+      <c r="D194">
+        <v>26</v>
+      </c>
+      <c r="E194" t="s">
+        <v>30</v>
+      </c>
+      <c r="F194">
+        <v>838718</v>
+      </c>
+      <c r="G194" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C195">
+        <v>194</v>
+      </c>
+      <c r="D195">
+        <v>22</v>
+      </c>
+      <c r="E195" t="s">
+        <v>30</v>
+      </c>
+      <c r="F195">
+        <v>838725</v>
+      </c>
+      <c r="G195" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C196">
+        <v>195</v>
+      </c>
+      <c r="D196">
+        <v>29</v>
+      </c>
+      <c r="E196" t="s">
+        <v>30</v>
+      </c>
+      <c r="F196">
+        <v>838737</v>
+      </c>
+      <c r="G196" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C197">
+        <v>196</v>
+      </c>
+      <c r="D197">
+        <v>36</v>
+      </c>
+      <c r="E197" t="s">
+        <v>30</v>
+      </c>
+      <c r="F197">
+        <v>838744</v>
+      </c>
+      <c r="G197" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C198">
+        <v>197</v>
+      </c>
+      <c r="D198">
+        <v>32</v>
+      </c>
+      <c r="E198" t="s">
+        <v>30</v>
+      </c>
+      <c r="F198">
+        <v>838751</v>
+      </c>
+      <c r="G198" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C199">
+        <v>198</v>
+      </c>
+      <c r="D199">
+        <v>23</v>
+      </c>
+      <c r="E199" t="s">
+        <v>30</v>
+      </c>
+      <c r="F199">
+        <v>838759</v>
+      </c>
+      <c r="G199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C200">
+        <v>199</v>
+      </c>
+      <c r="D200">
+        <v>17</v>
+      </c>
+      <c r="E200" t="s">
+        <v>30</v>
+      </c>
+      <c r="F200">
+        <v>838773</v>
+      </c>
+      <c r="G200" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C201">
+        <v>200</v>
+      </c>
+      <c r="D201">
+        <v>17</v>
+      </c>
+      <c r="E201" t="s">
+        <v>30</v>
+      </c>
+      <c r="F201">
+        <v>838787</v>
+      </c>
+      <c r="G201" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C202">
+        <v>201</v>
+      </c>
+      <c r="D202">
+        <v>16</v>
+      </c>
+      <c r="E202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F202">
+        <v>838791</v>
+      </c>
+      <c r="G202" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C203">
+        <v>202</v>
+      </c>
+      <c r="D203">
+        <v>14</v>
+      </c>
+      <c r="E203" t="s">
+        <v>30</v>
+      </c>
+      <c r="F203">
+        <v>838796</v>
+      </c>
+      <c r="G203" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C204">
+        <v>203</v>
+      </c>
+      <c r="D204">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>30</v>
+      </c>
+      <c r="F204">
+        <v>838804</v>
+      </c>
+      <c r="G204" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C205">
+        <v>204</v>
+      </c>
+      <c r="D205">
+        <v>15</v>
+      </c>
+      <c r="E205" t="s">
+        <v>30</v>
+      </c>
+      <c r="F205">
+        <v>838808</v>
+      </c>
+      <c r="G205" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C206">
+        <v>205</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>30</v>
+      </c>
+      <c r="F206">
+        <v>838812</v>
+      </c>
+      <c r="G206" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C207">
+        <v>206</v>
+      </c>
+      <c r="D207">
+        <v>13</v>
+      </c>
+      <c r="E207" t="s">
+        <v>30</v>
+      </c>
+      <c r="F207">
+        <v>838818</v>
+      </c>
+      <c r="G207" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C208">
+        <v>207</v>
+      </c>
+      <c r="D208">
+        <v>8</v>
+      </c>
+      <c r="E208" t="s">
+        <v>30</v>
+      </c>
+      <c r="F208">
+        <v>838820</v>
+      </c>
+      <c r="G208" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C209">
+        <v>208</v>
+      </c>
+      <c r="D209">
+        <v>7</v>
+      </c>
+      <c r="E209" t="s">
+        <v>30</v>
+      </c>
+      <c r="F209">
+        <v>838827</v>
+      </c>
+      <c r="G209" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C210">
+        <v>209</v>
+      </c>
+      <c r="D210">
+        <v>7</v>
+      </c>
+      <c r="E210" t="s">
+        <v>30</v>
+      </c>
+      <c r="F210">
+        <v>838831</v>
+      </c>
+      <c r="G210" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C211">
+        <v>210</v>
+      </c>
+      <c r="D211">
+        <v>8</v>
+      </c>
+      <c r="E211" t="s">
+        <v>30</v>
+      </c>
+      <c r="F211">
+        <v>838833</v>
+      </c>
+      <c r="G211" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C212">
+        <v>211</v>
+      </c>
+      <c r="D212">
+        <v>9</v>
+      </c>
+      <c r="E212" t="s">
+        <v>30</v>
+      </c>
+      <c r="F212">
+        <v>838835</v>
+      </c>
+      <c r="G212" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C213">
+        <v>212</v>
+      </c>
+      <c r="D213">
+        <v>8</v>
+      </c>
+      <c r="E213" t="s">
+        <v>30</v>
+      </c>
+      <c r="F213">
+        <v>838838</v>
+      </c>
+      <c r="G213" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7">
+      <c r="B214" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C214">
+        <v>213</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214" t="s">
+        <v>30</v>
+      </c>
+      <c r="F214">
+        <v>838840</v>
+      </c>
+      <c r="G214" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C215">
+        <v>214</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>30</v>
+      </c>
+      <c r="F215">
+        <v>838843</v>
+      </c>
+      <c r="G215" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C216">
+        <v>215</v>
+      </c>
+      <c r="D216">
+        <v>6</v>
+      </c>
+      <c r="E216" t="s">
+        <v>30</v>
+      </c>
+      <c r="F216">
+        <v>838847</v>
+      </c>
+      <c r="G216" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217">
+        <v>216</v>
+      </c>
+      <c r="D217">
+        <v>7</v>
+      </c>
+      <c r="E217" t="s">
+        <v>30</v>
+      </c>
+      <c r="F217">
+        <v>838847</v>
+      </c>
+      <c r="G217" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C218">
+        <v>217</v>
+      </c>
+      <c r="D218">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>30</v>
+      </c>
+      <c r="F218">
+        <v>838847</v>
+      </c>
+      <c r="G218" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="B219" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C219">
+        <v>218</v>
+      </c>
+      <c r="D219">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s">
+        <v>30</v>
+      </c>
+      <c r="F219">
+        <v>838849</v>
+      </c>
+      <c r="G219" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7">
+      <c r="B220" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C220">
+        <v>219</v>
+      </c>
+      <c r="D220">
+        <v>8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>30</v>
+      </c>
+      <c r="F220">
+        <v>838853</v>
+      </c>
+      <c r="G220" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7">
+      <c r="B221" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C221">
+        <v>220</v>
+      </c>
+      <c r="D221">
+        <v>6</v>
+      </c>
+      <c r="E221" t="s">
+        <v>30</v>
+      </c>
+      <c r="F221">
+        <v>838852</v>
+      </c>
+      <c r="G221" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7">
+      <c r="B222" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C222">
+        <v>221</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+      <c r="E222" t="s">
+        <v>30</v>
+      </c>
+      <c r="F222">
+        <v>838855</v>
+      </c>
+      <c r="G222" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7">
+      <c r="B223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C223">
+        <v>222</v>
+      </c>
+      <c r="D223">
+        <v>6</v>
+      </c>
+      <c r="E223" t="s">
+        <v>30</v>
+      </c>
+      <c r="F223">
+        <v>838859</v>
+      </c>
+      <c r="G223" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7">
+      <c r="B224" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C224">
+        <v>223</v>
+      </c>
+      <c r="D224">
+        <v>8</v>
+      </c>
+      <c r="E224" t="s">
+        <v>30</v>
+      </c>
+      <c r="F224">
+        <v>838858</v>
+      </c>
+      <c r="G224" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="B225" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C225">
+        <v>224</v>
+      </c>
+      <c r="D225">
+        <v>9</v>
+      </c>
+      <c r="E225" t="s">
+        <v>30</v>
+      </c>
+      <c r="F225">
+        <v>838860</v>
+      </c>
+      <c r="G225" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7">
+      <c r="B226" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C226">
+        <v>225</v>
+      </c>
+      <c r="D226">
+        <v>8</v>
+      </c>
+      <c r="E226" t="s">
+        <v>30</v>
+      </c>
+      <c r="F226">
+        <v>838857</v>
+      </c>
+      <c r="G226" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7">
+      <c r="B227" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C227">
+        <v>226</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>30</v>
+      </c>
+      <c r="F227">
+        <v>838858</v>
+      </c>
+      <c r="G227" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7">
+      <c r="B228" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C228">
+        <v>227</v>
+      </c>
+      <c r="D228">
+        <v>4</v>
+      </c>
+      <c r="E228" t="s">
+        <v>30</v>
+      </c>
+      <c r="F228">
+        <v>838862</v>
+      </c>
+      <c r="G228" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7">
+      <c r="B229" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C229">
+        <v>228</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+      <c r="E229" t="s">
+        <v>30</v>
+      </c>
+      <c r="F229">
+        <v>838861</v>
+      </c>
+      <c r="G229" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7">
+      <c r="B230" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C230">
+        <v>229</v>
+      </c>
+      <c r="D230">
+        <v>7</v>
+      </c>
+      <c r="E230" t="s">
+        <v>30</v>
+      </c>
+      <c r="F230">
+        <v>838863</v>
+      </c>
+      <c r="G230" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7">
+      <c r="B231" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C231">
+        <v>230</v>
+      </c>
+      <c r="D231">
+        <v>11</v>
+      </c>
+      <c r="E231" t="s">
+        <v>30</v>
+      </c>
+      <c r="F231">
+        <v>838864</v>
+      </c>
+      <c r="G231" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7">
+      <c r="B232" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C232">
+        <v>231</v>
+      </c>
+      <c r="D232">
+        <v>10</v>
+      </c>
+      <c r="E232" t="s">
+        <v>30</v>
+      </c>
+      <c r="F232">
+        <v>838865</v>
+      </c>
+      <c r="G232" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7">
+      <c r="B233" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C233">
+        <v>232</v>
+      </c>
+      <c r="D233">
+        <v>8</v>
+      </c>
+      <c r="E233" t="s">
+        <v>30</v>
+      </c>
+      <c r="F233">
+        <v>838864</v>
+      </c>
+      <c r="G233" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7">
+      <c r="B234" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C234">
+        <v>233</v>
+      </c>
+      <c r="D234">
+        <v>5</v>
+      </c>
+      <c r="E234" t="s">
+        <v>30</v>
+      </c>
+      <c r="F234">
+        <v>838869</v>
+      </c>
+      <c r="G234" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7">
+      <c r="B235" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C235">
+        <v>234</v>
+      </c>
+      <c r="D235">
+        <v>9</v>
+      </c>
+      <c r="E235" t="s">
+        <v>30</v>
+      </c>
+      <c r="F235">
+        <v>838873</v>
+      </c>
+      <c r="G235" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7">
+      <c r="B236" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C236">
+        <v>235</v>
+      </c>
+      <c r="D236">
+        <v>8</v>
+      </c>
+      <c r="E236" t="s">
+        <v>30</v>
+      </c>
+      <c r="F236">
+        <v>838871</v>
+      </c>
+      <c r="G236" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7">
+      <c r="B237" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C237">
+        <v>236</v>
+      </c>
+      <c r="D237">
+        <v>13</v>
+      </c>
+      <c r="E237" t="s">
+        <v>30</v>
+      </c>
+      <c r="F237">
+        <v>838873</v>
+      </c>
+      <c r="G237" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7">
+      <c r="B238" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C238">
+        <v>237</v>
+      </c>
+      <c r="D238">
+        <v>11</v>
+      </c>
+      <c r="E238" t="s">
+        <v>30</v>
+      </c>
+      <c r="F238">
+        <v>838873</v>
+      </c>
+      <c r="G238" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7">
+      <c r="B239" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C239">
+        <v>238</v>
+      </c>
+      <c r="D239">
+        <v>10</v>
+      </c>
+      <c r="E239" t="s">
+        <v>30</v>
+      </c>
+      <c r="F239">
+        <v>838876</v>
+      </c>
+      <c r="G239" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7">
+      <c r="B240" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C240">
+        <v>239</v>
+      </c>
+      <c r="D240">
+        <v>7</v>
+      </c>
+      <c r="E240" t="s">
+        <v>30</v>
+      </c>
+      <c r="F240">
+        <v>838876</v>
+      </c>
+      <c r="G240" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7">
+      <c r="B241" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C241">
+        <v>240</v>
+      </c>
+      <c r="D241">
+        <v>8</v>
+      </c>
+      <c r="E241" t="s">
+        <v>30</v>
+      </c>
+      <c r="F241">
+        <v>838880</v>
+      </c>
+      <c r="G241" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7">
+      <c r="B242" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C242">
+        <v>241</v>
+      </c>
+      <c r="D242">
+        <v>11</v>
+      </c>
+      <c r="E242" t="s">
+        <v>30</v>
+      </c>
+      <c r="F242">
+        <v>838880</v>
+      </c>
+      <c r="G242" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7">
+      <c r="B243" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C243">
+        <v>242</v>
+      </c>
+      <c r="D243">
+        <v>9</v>
+      </c>
+      <c r="E243" t="s">
+        <v>30</v>
+      </c>
+      <c r="F243">
+        <v>838880</v>
+      </c>
+      <c r="G243" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7">
+      <c r="B244" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C244">
+        <v>243</v>
+      </c>
+      <c r="D244">
+        <v>8</v>
+      </c>
+      <c r="E244" t="s">
+        <v>30</v>
+      </c>
+      <c r="F244">
+        <v>838879</v>
+      </c>
+      <c r="G244" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7">
+      <c r="B245" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C245">
+        <v>244</v>
+      </c>
+      <c r="D245">
+        <v>7</v>
+      </c>
+      <c r="E245" t="s">
+        <v>30</v>
+      </c>
+      <c r="F245">
+        <v>838877</v>
+      </c>
+      <c r="G245" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7">
+      <c r="B246" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C246">
+        <v>245</v>
+      </c>
+      <c r="D246">
+        <v>9</v>
+      </c>
+      <c r="E246" t="s">
+        <v>30</v>
+      </c>
+      <c r="F246">
+        <v>838879</v>
+      </c>
+      <c r="G246" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7">
+      <c r="B247" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C247">
+        <v>246</v>
+      </c>
+      <c r="D247">
+        <v>12</v>
+      </c>
+      <c r="E247" t="s">
+        <v>30</v>
+      </c>
+      <c r="F247">
+        <v>838873</v>
+      </c>
+      <c r="G247" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7">
+      <c r="B248" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C248">
+        <v>247</v>
+      </c>
+      <c r="D248">
+        <v>21</v>
+      </c>
+      <c r="E248" t="s">
+        <v>30</v>
+      </c>
+      <c r="F248">
+        <v>838868</v>
+      </c>
+      <c r="G248" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7">
+      <c r="B249" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C249">
+        <v>248</v>
+      </c>
+      <c r="D249">
+        <v>24</v>
+      </c>
+      <c r="E249" t="s">
+        <v>30</v>
+      </c>
+      <c r="F249">
+        <v>838861</v>
+      </c>
+      <c r="G249" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7">
+      <c r="B250" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C250">
+        <v>249</v>
+      </c>
+      <c r="D250">
+        <v>23</v>
+      </c>
+      <c r="E250" t="s">
+        <v>30</v>
+      </c>
+      <c r="F250">
+        <v>838853</v>
+      </c>
+      <c r="G250" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7">
+      <c r="B251" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C251">
+        <v>250</v>
+      </c>
+      <c r="D251">
+        <v>22</v>
+      </c>
+      <c r="E251" t="s">
+        <v>30</v>
+      </c>
+      <c r="F251">
+        <v>838841</v>
+      </c>
+      <c r="G251" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7">
+      <c r="B252" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C252">
+        <v>251</v>
+      </c>
+      <c r="D252">
+        <v>28</v>
+      </c>
+      <c r="E252" t="s">
+        <v>30</v>
+      </c>
+      <c r="F252">
+        <v>838844</v>
+      </c>
+      <c r="G252" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7">
+      <c r="B253" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C253">
+        <v>252</v>
+      </c>
+      <c r="D253">
+        <v>44</v>
+      </c>
+      <c r="E253" t="s">
+        <v>30</v>
+      </c>
+      <c r="F253">
+        <v>838842</v>
+      </c>
+      <c r="G253" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7">
+      <c r="B254" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C254">
+        <v>253</v>
+      </c>
+      <c r="D254">
+        <v>55</v>
+      </c>
+      <c r="E254" t="s">
+        <v>30</v>
+      </c>
+      <c r="F254">
+        <v>838825</v>
+      </c>
+      <c r="G254" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7">
+      <c r="B255" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C255">
+        <v>254</v>
+      </c>
+      <c r="D255">
+        <v>74</v>
+      </c>
+      <c r="E255" t="s">
+        <v>30</v>
+      </c>
+      <c r="F255">
+        <v>838813</v>
+      </c>
+      <c r="G255" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7">
+      <c r="B256" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C256">
+        <v>255</v>
+      </c>
+      <c r="D256">
+        <v>71</v>
+      </c>
+      <c r="E256" t="s">
+        <v>30</v>
+      </c>
+      <c r="F256">
+        <v>838792</v>
+      </c>
+      <c r="G256" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7">
+      <c r="B257" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C257">
+        <v>256</v>
+      </c>
+      <c r="D257">
+        <v>68</v>
+      </c>
+      <c r="E257" t="s">
+        <v>30</v>
+      </c>
+      <c r="F257">
+        <v>838778</v>
+      </c>
+      <c r="G257" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7">
+      <c r="B258" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C258">
+        <v>257</v>
+      </c>
+      <c r="D258">
+        <v>73</v>
+      </c>
+      <c r="E258" t="s">
+        <v>30</v>
+      </c>
+      <c r="F258">
+        <v>838764</v>
+      </c>
+      <c r="G258" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7">
+      <c r="B259" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C259">
+        <v>258</v>
+      </c>
+      <c r="D259">
+        <v>97</v>
+      </c>
+      <c r="E259" t="s">
+        <v>30</v>
+      </c>
+      <c r="F259">
+        <v>838758</v>
+      </c>
+      <c r="G259" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7">
+      <c r="B260" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C260">
+        <v>259</v>
+      </c>
+      <c r="D260">
+        <v>149</v>
+      </c>
+      <c r="E260" t="s">
+        <v>30</v>
+      </c>
+      <c r="F260">
+        <v>838724</v>
+      </c>
+      <c r="G260" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7">
+      <c r="B261" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C261">
+        <v>260</v>
+      </c>
+      <c r="D261">
+        <v>176</v>
+      </c>
+      <c r="E261" t="s">
+        <v>30</v>
+      </c>
+      <c r="F261">
+        <v>838671</v>
+      </c>
+      <c r="G261" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7">
+      <c r="B262" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C262">
+        <v>261</v>
+      </c>
+      <c r="D262">
+        <v>203</v>
+      </c>
+      <c r="E262" t="s">
+        <v>30</v>
+      </c>
+      <c r="F262">
+        <v>838627</v>
+      </c>
+      <c r="G262" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7">
+      <c r="B263" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C263">
+        <v>262</v>
+      </c>
+      <c r="D263">
+        <v>200</v>
+      </c>
+      <c r="E263" t="s">
+        <v>30</v>
+      </c>
+      <c r="F263">
+        <v>838562</v>
+      </c>
+      <c r="G263" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7">
+      <c r="B264" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C264">
+        <v>263</v>
+      </c>
+      <c r="D264">
+        <v>238</v>
+      </c>
+      <c r="E264" t="s">
+        <v>30</v>
+      </c>
+      <c r="F264">
+        <v>838548</v>
+      </c>
+      <c r="G264" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7">
+      <c r="B265" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C265">
+        <v>264</v>
+      </c>
+      <c r="D265">
+        <v>321</v>
+      </c>
+      <c r="E265" t="s">
+        <v>30</v>
+      </c>
+      <c r="F265">
+        <v>838494</v>
+      </c>
+      <c r="G265" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7">
+      <c r="B266" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C266">
+        <v>265</v>
+      </c>
+      <c r="D266">
+        <v>425</v>
+      </c>
+      <c r="E266" t="s">
+        <v>30</v>
+      </c>
+      <c r="F266">
+        <v>838413</v>
+      </c>
+      <c r="G266" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7">
+      <c r="B267" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C267">
+        <v>266</v>
+      </c>
+      <c r="D267">
+        <v>548</v>
+      </c>
+      <c r="E267" t="s">
+        <v>30</v>
+      </c>
+      <c r="F267">
+        <v>838260</v>
+      </c>
+      <c r="G267" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7">
+      <c r="B268" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C268">
+        <v>267</v>
+      </c>
+      <c r="D268">
+        <v>587</v>
+      </c>
+      <c r="E268" t="s">
+        <v>30</v>
+      </c>
+      <c r="F268">
+        <v>838085</v>
+      </c>
+      <c r="G268" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7">
+      <c r="B269" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C269">
+        <v>268</v>
+      </c>
+      <c r="D269">
+        <v>669</v>
+      </c>
+      <c r="E269" t="s">
+        <v>30</v>
+      </c>
+      <c r="F269">
+        <v>837967</v>
+      </c>
+      <c r="G269" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7">
+      <c r="B270" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C270">
+        <v>269</v>
+      </c>
+      <c r="D270">
+        <v>763</v>
+      </c>
+      <c r="E270" t="s">
+        <v>30</v>
+      </c>
+      <c r="F270">
+        <v>837788</v>
+      </c>
+      <c r="G270" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7">
+      <c r="B271" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C271">
+        <v>270</v>
+      </c>
+      <c r="D271">
+        <v>1026</v>
+      </c>
+      <c r="E271" t="s">
+        <v>30</v>
+      </c>
+      <c r="F271">
+        <v>837649</v>
+      </c>
+      <c r="G271" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7">
+      <c r="B272" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C272">
+        <v>271</v>
+      </c>
+      <c r="D272">
+        <v>1359</v>
+      </c>
+      <c r="E272" t="s">
+        <v>30</v>
+      </c>
+      <c r="F272">
+        <v>837316</v>
+      </c>
+      <c r="G272" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7">
+      <c r="B273" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C273">
+        <v>272</v>
+      </c>
+      <c r="D273">
+        <v>1665</v>
+      </c>
+      <c r="E273" t="s">
+        <v>30</v>
+      </c>
+      <c r="F273">
+        <v>836892</v>
+      </c>
+      <c r="G273" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7">
+      <c r="B274" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C274">
+        <v>273</v>
+      </c>
+      <c r="D274">
+        <v>1970</v>
+      </c>
+      <c r="E274" t="s">
+        <v>30</v>
+      </c>
+      <c r="F274">
+        <v>836416</v>
+      </c>
+      <c r="G274" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7">
+      <c r="B275" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C275">
+        <v>274</v>
+      </c>
+      <c r="D275">
+        <v>2198</v>
+      </c>
+      <c r="E275" t="s">
+        <v>30</v>
+      </c>
+      <c r="F275">
+        <v>835839</v>
+      </c>
+      <c r="G275" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7">
+      <c r="B276" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C276">
+        <v>275</v>
+      </c>
+      <c r="D276">
+        <v>2718</v>
+      </c>
+      <c r="E276" t="s">
+        <v>30</v>
+      </c>
+      <c r="F276">
+        <v>835274</v>
+      </c>
+      <c r="G276" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7">
+      <c r="B277" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C277">
+        <v>276</v>
+      </c>
+      <c r="D277">
+        <v>3471</v>
+      </c>
+      <c r="E277" t="s">
+        <v>30</v>
+      </c>
+      <c r="F277">
+        <v>834582</v>
+      </c>
+      <c r="G277" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7">
+      <c r="B278" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C278">
+        <v>277</v>
+      </c>
+      <c r="D278">
+        <v>4501</v>
+      </c>
+      <c r="E278" t="s">
+        <v>30</v>
+      </c>
+      <c r="F278">
+        <v>833659</v>
+      </c>
+      <c r="G278" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7">
+      <c r="B279" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C279">
+        <v>278</v>
+      </c>
+      <c r="D279">
+        <v>5655</v>
+      </c>
+      <c r="E279" t="s">
+        <v>30</v>
+      </c>
+      <c r="F279">
+        <v>832259</v>
+      </c>
+      <c r="G279" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7">
+      <c r="B280" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C280">
+        <v>279</v>
+      </c>
+      <c r="D280">
+        <v>6746</v>
+      </c>
+      <c r="E280" t="s">
+        <v>30</v>
+      </c>
+      <c r="F280">
+        <v>831186</v>
+      </c>
+      <c r="G280" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7">
+      <c r="B281" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C281">
+        <v>280</v>
+      </c>
+      <c r="D281">
+        <v>7978</v>
+      </c>
+      <c r="E281" t="s">
+        <v>30</v>
+      </c>
+      <c r="F281">
+        <v>830050</v>
+      </c>
+      <c r="G281" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7">
+      <c r="B282" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C282">
+        <v>281</v>
+      </c>
+      <c r="D282">
+        <v>9657</v>
+      </c>
+      <c r="E282" t="s">
+        <v>30</v>
+      </c>
+      <c r="F282">
+        <v>828764</v>
+      </c>
+      <c r="G282" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7">
+      <c r="B283" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C283">
+        <v>282</v>
+      </c>
+      <c r="D283">
+        <v>12308</v>
+      </c>
+      <c r="E283" t="s">
+        <v>30</v>
+      </c>
+      <c r="F283">
+        <v>827203</v>
+      </c>
+      <c r="G283" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7">
+      <c r="B284" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C284">
+        <v>283</v>
+      </c>
+      <c r="D284">
+        <v>12490</v>
+      </c>
+      <c r="E284" t="s">
+        <v>30</v>
+      </c>
+      <c r="F284">
+        <v>824947</v>
+      </c>
+      <c r="G284" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7">
+      <c r="B285" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C285">
+        <v>284</v>
+      </c>
+      <c r="D285">
+        <v>12438</v>
+      </c>
+      <c r="E285" t="s">
+        <v>30</v>
+      </c>
+      <c r="F285">
+        <v>822936</v>
+      </c>
+      <c r="G285" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7">
+      <c r="B286" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C286">
+        <v>285</v>
+      </c>
+      <c r="D286">
+        <v>11809</v>
+      </c>
+      <c r="E286" t="s">
+        <v>30</v>
+      </c>
+      <c r="F286">
+        <v>821981</v>
+      </c>
+      <c r="G286" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7">
+      <c r="B287" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C287">
+        <v>286</v>
+      </c>
+      <c r="D287">
+        <v>14168</v>
+      </c>
+      <c r="E287" t="s">
+        <v>30</v>
+      </c>
+      <c r="F287">
+        <v>822457</v>
+      </c>
+      <c r="G287" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7">
+      <c r="B288" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C288">
+        <v>287</v>
+      </c>
+      <c r="D288">
+        <v>17456</v>
+      </c>
+      <c r="E288" t="s">
+        <v>30</v>
+      </c>
+      <c r="F288">
+        <v>820086</v>
+      </c>
+      <c r="G288" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8">
+      <c r="B289" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C289">
+        <v>288</v>
+      </c>
+      <c r="D289">
+        <v>20258</v>
+      </c>
+      <c r="E289" t="s">
+        <v>30</v>
+      </c>
+      <c r="F289">
+        <v>816863</v>
+      </c>
+      <c r="G289" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8">
+      <c r="B290" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C290">
+        <v>289</v>
+      </c>
+      <c r="D290">
+        <v>21891</v>
+      </c>
+      <c r="E290" t="s">
+        <v>30</v>
+      </c>
+      <c r="F290">
+        <v>813325</v>
+      </c>
+      <c r="G290" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8">
+      <c r="B291" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C291">
+        <v>290</v>
+      </c>
+      <c r="D291">
+        <v>21729</v>
+      </c>
+      <c r="E291" t="s">
+        <v>30</v>
+      </c>
+      <c r="F291">
+        <v>810435</v>
+      </c>
+      <c r="G291" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8">
+      <c r="B292" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C292">
+        <v>291</v>
+      </c>
+      <c r="D292">
+        <v>22602</v>
+      </c>
+      <c r="E292" t="s">
+        <v>30</v>
+      </c>
+      <c r="F292">
+        <v>809115</v>
+      </c>
+      <c r="G292" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8">
+      <c r="B293" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C293">
+        <v>292</v>
+      </c>
+      <c r="D293">
+        <v>25754</v>
+      </c>
+      <c r="E293" t="s">
+        <v>30</v>
+      </c>
+      <c r="F293">
+        <v>807671</v>
+      </c>
+      <c r="G293" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8">
+      <c r="B294" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C294">
+        <v>293</v>
+      </c>
+      <c r="D294">
+        <v>30676</v>
+      </c>
+      <c r="E294" t="s">
+        <v>30</v>
+      </c>
+      <c r="F294">
+        <v>804803</v>
+      </c>
+      <c r="G294" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8">
+      <c r="B295" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C295">
+        <v>294</v>
+      </c>
+      <c r="D295">
+        <v>35226</v>
+      </c>
+      <c r="E295" t="s">
+        <v>30</v>
+      </c>
+      <c r="F295">
+        <v>800076</v>
+      </c>
+      <c r="G295" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8">
+      <c r="B296" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C296">
+        <v>295</v>
+      </c>
+      <c r="D296">
+        <v>37453</v>
+      </c>
+      <c r="E296" t="s">
+        <v>30</v>
+      </c>
+      <c r="F296">
+        <v>794921</v>
+      </c>
+      <c r="G296" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8">
+      <c r="B297" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C297">
+        <v>296</v>
+      </c>
+      <c r="D297">
+        <v>38733</v>
+      </c>
+      <c r="E297" t="s">
+        <v>30</v>
+      </c>
+      <c r="F297">
+        <v>791291</v>
+      </c>
+      <c r="G297" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8">
+      <c r="B298" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C298">
+        <v>297</v>
+      </c>
+      <c r="D298">
+        <v>40790</v>
+      </c>
+      <c r="E298" t="s">
+        <v>30</v>
+      </c>
+      <c r="F298">
+        <v>789042</v>
+      </c>
+      <c r="G298" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8">
+      <c r="B299" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C299">
+        <v>298</v>
+      </c>
+      <c r="D299">
+        <v>45426</v>
+      </c>
+      <c r="E299" t="s">
+        <v>30</v>
+      </c>
+      <c r="F299">
+        <v>787288</v>
+      </c>
+      <c r="G299" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8">
+      <c r="B300" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C300">
+        <v>299</v>
+      </c>
+      <c r="D300" t="s">
+        <v>29</v>
+      </c>
+      <c r="E300">
+        <v>52007</v>
+      </c>
+      <c r="F300" t="s">
+        <v>30</v>
+      </c>
+      <c r="G300">
+        <v>783863</v>
+      </c>
+      <c r="H300" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8">
+      <c r="B301" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C301">
+        <v>300</v>
+      </c>
+      <c r="D301" t="s">
+        <v>29</v>
+      </c>
+      <c r="E301">
+        <v>57876</v>
+      </c>
+      <c r="F301" t="s">
+        <v>30</v>
+      </c>
+      <c r="G301">
+        <v>787040</v>
+      </c>
+      <c r="H301" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8">
+      <c r="B302" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C302">
+        <v>301</v>
+      </c>
+      <c r="D302" t="s">
+        <v>29</v>
+      </c>
+      <c r="E302">
+        <v>61599</v>
+      </c>
+      <c r="F302" t="s">
+        <v>30</v>
+      </c>
+      <c r="G302">
+        <v>790781</v>
+      </c>
+      <c r="H302" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="303" spans="2:8">
+      <c r="B303" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C303">
+        <v>302</v>
+      </c>
+      <c r="D303" t="s">
+        <v>29</v>
+      </c>
+      <c r="E303">
+        <v>63438</v>
+      </c>
+      <c r="F303" t="s">
+        <v>30</v>
+      </c>
+      <c r="G303">
+        <v>796515</v>
+      </c>
+      <c r="H303" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8">
+      <c r="B304" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C304">
+        <v>303</v>
+      </c>
+      <c r="D304" t="s">
+        <v>29</v>
+      </c>
+      <c r="E304">
+        <v>66597</v>
+      </c>
+      <c r="F304" t="s">
+        <v>30</v>
+      </c>
+      <c r="G304">
+        <v>804319</v>
+      </c>
+      <c r="H304" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="305" spans="2:8">
+      <c r="B305" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C305">
+        <v>304</v>
+      </c>
+      <c r="D305" t="s">
+        <v>29</v>
+      </c>
+      <c r="E305">
+        <v>60536</v>
+      </c>
+      <c r="F305" t="s">
+        <v>30</v>
+      </c>
+      <c r="G305">
+        <v>812627</v>
+      </c>
+      <c r="H305" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="306" spans="2:8">
+      <c r="B306" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C306">
+        <v>305</v>
+      </c>
+      <c r="D306" t="s">
+        <v>29</v>
+      </c>
+      <c r="E306">
+        <v>55444</v>
+      </c>
+      <c r="F306" t="s">
+        <v>30</v>
+      </c>
+      <c r="G306">
+        <v>822516</v>
+      </c>
+      <c r="H306" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="307" spans="2:8">
+      <c r="B307" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C307">
+        <v>306</v>
+      </c>
+      <c r="D307" t="s">
+        <v>29</v>
+      </c>
+      <c r="E307">
+        <v>48937</v>
+      </c>
+      <c r="F307" t="s">
+        <v>30</v>
+      </c>
+      <c r="G307">
+        <v>834239</v>
+      </c>
+      <c r="H307" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8">
+      <c r="B308" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C308">
+        <v>307</v>
+      </c>
+      <c r="D308" t="s">
+        <v>29</v>
+      </c>
+      <c r="E308">
+        <v>51842</v>
+      </c>
+      <c r="F308" t="s">
+        <v>30</v>
+      </c>
+      <c r="G308">
+        <v>849387</v>
+      </c>
+      <c r="H308" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="309" spans="2:8">
+      <c r="B309" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C309">
+        <v>308</v>
+      </c>
+      <c r="D309" t="s">
+        <v>29</v>
+      </c>
+      <c r="E309">
+        <v>53601</v>
+      </c>
+      <c r="F309" t="s">
+        <v>30</v>
+      </c>
+      <c r="G309">
+        <v>855003</v>
+      </c>
+      <c r="H309" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8">
+      <c r="B310" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C310">
+        <v>309</v>
+      </c>
+      <c r="D310" t="s">
+        <v>29</v>
+      </c>
+      <c r="E310">
+        <v>52746</v>
+      </c>
+      <c r="F310" t="s">
+        <v>30</v>
+      </c>
+      <c r="G310">
+        <v>862137</v>
+      </c>
+      <c r="H310" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8">
+      <c r="B311" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C311">
+        <v>310</v>
+      </c>
+      <c r="D311" t="s">
+        <v>29</v>
+      </c>
+      <c r="E311">
+        <v>49835</v>
+      </c>
+      <c r="F311" t="s">
+        <v>30</v>
+      </c>
+      <c r="G311">
+        <v>870242</v>
+      </c>
+      <c r="H311" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8">
+      <c r="B312" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C312">
+        <v>311</v>
+      </c>
+      <c r="D312" t="s">
+        <v>29</v>
+      </c>
+      <c r="E312">
+        <v>44637</v>
+      </c>
+      <c r="F312" t="s">
+        <v>30</v>
+      </c>
+      <c r="G312">
+        <v>879417</v>
+      </c>
+      <c r="H312" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="313" spans="2:8">
+      <c r="B313" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C313">
+        <v>312</v>
+      </c>
+      <c r="D313" t="s">
+        <v>29</v>
+      </c>
+      <c r="E313">
+        <v>41910</v>
+      </c>
+      <c r="F313" t="s">
+        <v>30</v>
+      </c>
+      <c r="G313">
+        <v>890128</v>
+      </c>
+      <c r="H313" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="314" spans="2:8">
+      <c r="B314" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C314">
+        <v>313</v>
+      </c>
+      <c r="D314" t="s">
+        <v>29</v>
+      </c>
+      <c r="E314">
+        <v>41130</v>
+      </c>
+      <c r="F314" t="s">
+        <v>30</v>
+      </c>
+      <c r="G314">
+        <v>899571</v>
+      </c>
+      <c r="H314" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="315" spans="2:8">
+      <c r="B315" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C315">
+        <v>314</v>
+      </c>
+      <c r="D315" t="s">
+        <v>29</v>
+      </c>
+      <c r="E315">
+        <v>41982</v>
+      </c>
+      <c r="F315" t="s">
+        <v>30</v>
+      </c>
+      <c r="G315">
+        <v>907486</v>
+      </c>
+      <c r="H315" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="316" spans="2:8">
+      <c r="B316" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C316">
+        <v>315</v>
+      </c>
+      <c r="D316" t="s">
+        <v>29</v>
+      </c>
+      <c r="E316">
+        <v>41298</v>
+      </c>
+      <c r="F316" t="s">
+        <v>30</v>
+      </c>
+      <c r="G316">
+        <v>913599</v>
+      </c>
+      <c r="H316" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="317" spans="2:8">
+      <c r="B317" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C317">
+        <v>316</v>
+      </c>
+      <c r="D317" t="s">
+        <v>29</v>
+      </c>
+      <c r="E317">
+        <v>38673</v>
+      </c>
+      <c r="F317" t="s">
+        <v>30</v>
+      </c>
+      <c r="G317">
+        <v>920422</v>
+      </c>
+      <c r="H317" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="318" spans="2:8">
+      <c r="B318" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C318">
+        <v>317</v>
+      </c>
+      <c r="D318" t="s">
+        <v>29</v>
+      </c>
+      <c r="E318">
+        <v>35494</v>
+      </c>
+      <c r="F318" t="s">
+        <v>30</v>
+      </c>
+      <c r="G318">
+        <v>928128</v>
+      </c>
+      <c r="H318" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="319" spans="2:8">
+      <c r="B319" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C319">
+        <v>318</v>
+      </c>
+      <c r="D319" t="s">
+        <v>29</v>
+      </c>
+      <c r="E319">
+        <v>32865</v>
+      </c>
+      <c r="F319" t="s">
+        <v>30</v>
+      </c>
+      <c r="G319">
+        <v>936225</v>
+      </c>
+      <c r="H319" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="320" spans="2:8">
+      <c r="B320" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C320">
+        <v>319</v>
+      </c>
+      <c r="D320" t="s">
+        <v>29</v>
+      </c>
+      <c r="E320">
+        <v>32022</v>
+      </c>
+      <c r="F320" t="s">
+        <v>30</v>
+      </c>
+      <c r="G320">
+        <v>943951</v>
+      </c>
+      <c r="H320" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="321" spans="2:8">
+      <c r="B321" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C321">
+        <v>320</v>
+      </c>
+      <c r="D321" t="s">
+        <v>29</v>
+      </c>
+      <c r="E321">
+        <v>31870</v>
+      </c>
+      <c r="F321" t="s">
+        <v>30</v>
+      </c>
+      <c r="G321">
+        <v>950190</v>
+      </c>
+      <c r="H321" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="322" spans="2:8">
+      <c r="B322" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C322">
+        <v>321</v>
+      </c>
+      <c r="D322" t="s">
+        <v>29</v>
+      </c>
+      <c r="E322">
+        <v>31211</v>
+      </c>
+      <c r="F322" t="s">
+        <v>30</v>
+      </c>
+      <c r="G322">
+        <v>955864</v>
+      </c>
+      <c r="H322" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="323" spans="2:8">
+      <c r="B323" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C323">
+        <v>322</v>
+      </c>
+      <c r="D323" t="s">
+        <v>29</v>
+      </c>
+      <c r="E323">
+        <v>29620</v>
+      </c>
+      <c r="F323" t="s">
+        <v>30</v>
+      </c>
+      <c r="G323">
+        <v>961265</v>
+      </c>
+      <c r="H323" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="324" spans="2:8">
+      <c r="B324" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C324">
+        <v>323</v>
+      </c>
+      <c r="D324" t="s">
+        <v>29</v>
+      </c>
+      <c r="E324">
+        <v>27304</v>
+      </c>
+      <c r="F324" t="s">
+        <v>30</v>
+      </c>
+      <c r="G324">
+        <v>967166</v>
+      </c>
+      <c r="H324" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="325" spans="2:8">
+      <c r="B325" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C325">
+        <v>324</v>
+      </c>
+      <c r="D325" t="s">
+        <v>29</v>
+      </c>
+      <c r="E325">
+        <v>25617</v>
+      </c>
+      <c r="F325" t="s">
+        <v>30</v>
+      </c>
+      <c r="G325">
+        <v>973359</v>
+      </c>
+      <c r="H325" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="326" spans="2:8">
+      <c r="B326" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C326">
+        <v>325</v>
+      </c>
+      <c r="D326" t="s">
+        <v>29</v>
+      </c>
+      <c r="E326">
+        <v>24614</v>
+      </c>
+      <c r="F326" t="s">
+        <v>30</v>
+      </c>
+      <c r="G326">
+        <v>979045</v>
+      </c>
+      <c r="H326" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="327" spans="2:8">
+      <c r="B327" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C327">
+        <v>326</v>
+      </c>
+      <c r="D327" t="s">
+        <v>29</v>
+      </c>
+      <c r="E327">
+        <v>24260</v>
+      </c>
+      <c r="F327" t="s">
+        <v>30</v>
+      </c>
+      <c r="G327">
+        <v>984127</v>
+      </c>
+      <c r="H327" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="328" spans="2:8">
+      <c r="B328" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C328">
+        <v>327</v>
+      </c>
+      <c r="D328" t="s">
+        <v>29</v>
+      </c>
+      <c r="E328">
+        <v>23496</v>
+      </c>
+      <c r="F328" t="s">
+        <v>30</v>
+      </c>
+      <c r="G328">
+        <v>988464</v>
+      </c>
+      <c r="H328" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="329" spans="2:8">
+      <c r="B329" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C329">
+        <v>328</v>
+      </c>
+      <c r="D329" t="s">
+        <v>29</v>
+      </c>
+      <c r="E329">
+        <v>22390</v>
+      </c>
+      <c r="F329" t="s">
+        <v>30</v>
+      </c>
+      <c r="G329">
+        <v>992957</v>
+      </c>
+      <c r="H329" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="330" spans="2:8">
+      <c r="B330" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C330">
+        <v>329</v>
+      </c>
+      <c r="D330" t="s">
+        <v>29</v>
+      </c>
+      <c r="E330">
+        <v>21016</v>
+      </c>
+      <c r="F330" t="s">
+        <v>30</v>
+      </c>
+      <c r="G330">
+        <v>997448</v>
+      </c>
+      <c r="H330" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="331" spans="2:8">
+      <c r="B331" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C331">
+        <v>330</v>
+      </c>
+      <c r="D331" t="s">
+        <v>29</v>
+      </c>
+      <c r="E331">
+        <v>19918</v>
+      </c>
+      <c r="F331" t="s">
+        <v>30</v>
+      </c>
+      <c r="G331">
+        <v>1002079</v>
+      </c>
+      <c r="H331" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="332" spans="2:8">
+      <c r="B332" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C332">
+        <v>331</v>
+      </c>
+      <c r="D332" t="s">
+        <v>29</v>
+      </c>
+      <c r="E332">
+        <v>19197</v>
+      </c>
+      <c r="F332" t="s">
+        <v>30</v>
+      </c>
+      <c r="G332">
+        <v>1006391</v>
+      </c>
+      <c r="H332" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="333" spans="2:8">
+      <c r="B333" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C333">
+        <v>332</v>
+      </c>
+      <c r="D333" t="s">
+        <v>29</v>
+      </c>
+      <c r="E333">
+        <v>18500</v>
+      </c>
+      <c r="F333" t="s">
+        <v>30</v>
+      </c>
+      <c r="G333">
+        <v>1010284</v>
+      </c>
+      <c r="H333" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="334" spans="2:8">
+      <c r="B334" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C334">
+        <v>333</v>
+      </c>
+      <c r="D334" t="s">
+        <v>29</v>
+      </c>
+      <c r="E334">
+        <v>17922</v>
+      </c>
+      <c r="F334" t="s">
+        <v>30</v>
+      </c>
+      <c r="G334">
+        <v>1014083</v>
+      </c>
+      <c r="H334" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="335" spans="2:8">
+      <c r="B335" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C335">
+        <v>334</v>
+      </c>
+      <c r="D335" t="s">
+        <v>29</v>
+      </c>
+      <c r="E335">
+        <v>16999</v>
+      </c>
+      <c r="F335" t="s">
+        <v>30</v>
+      </c>
+      <c r="G335">
+        <v>1017542</v>
+      </c>
+      <c r="H335" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="336" spans="2:8">
+      <c r="B336" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C336">
+        <v>335</v>
+      </c>
+      <c r="D336">
+        <v>16125</v>
+      </c>
+      <c r="E336" t="s">
+        <v>30</v>
+      </c>
+      <c r="F336">
+        <v>1021154</v>
+      </c>
+      <c r="G336" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7">
+      <c r="B337" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C337">
+        <v>336</v>
+      </c>
+      <c r="D337">
+        <v>15264</v>
+      </c>
+      <c r="E337" t="s">
+        <v>30</v>
+      </c>
+      <c r="F337">
+        <v>1023003</v>
+      </c>
+      <c r="G337" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7">
+      <c r="B338" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C338">
+        <v>337</v>
+      </c>
+      <c r="D338">
+        <v>14513</v>
+      </c>
+      <c r="E338" t="s">
+        <v>30</v>
+      </c>
+      <c r="F338">
+        <v>1024914</v>
+      </c>
+      <c r="G338" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7">
+      <c r="B339" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C339">
+        <v>338</v>
+      </c>
+      <c r="D339">
+        <v>14241</v>
+      </c>
+      <c r="E339" t="s">
+        <v>30</v>
+      </c>
+      <c r="F339">
+        <v>1026626</v>
+      </c>
+      <c r="G339" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7">
+      <c r="B340" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C340">
+        <v>339</v>
+      </c>
+      <c r="D340">
+        <v>13800</v>
+      </c>
+      <c r="E340" t="s">
+        <v>30</v>
+      </c>
+      <c r="F340">
+        <v>1028137</v>
+      </c>
+      <c r="G340" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7">
+      <c r="B341" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C341">
+        <v>340</v>
+      </c>
+      <c r="D341">
+        <v>16060</v>
+      </c>
+      <c r="E341" t="s">
+        <v>30</v>
+      </c>
+      <c r="F341">
+        <v>1029510</v>
+      </c>
+      <c r="G341" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7">
+      <c r="B342" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C342">
+        <v>341</v>
+      </c>
+      <c r="D342">
+        <v>17736</v>
+      </c>
+      <c r="E342" t="s">
+        <v>30</v>
+      </c>
+      <c r="F342">
+        <v>1030193</v>
+      </c>
+      <c r="G342" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7">
+      <c r="B343" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C343">
+        <v>342</v>
+      </c>
+      <c r="D343">
+        <v>19412</v>
+      </c>
+      <c r="E343" t="s">
+        <v>30</v>
+      </c>
+      <c r="F343">
+        <v>1030703</v>
+      </c>
+      <c r="G343" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="344" spans="2:7">
+      <c r="B344" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C344">
+        <v>343</v>
+      </c>
+      <c r="D344">
+        <v>18548</v>
+      </c>
+      <c r="E344" t="s">
+        <v>30</v>
+      </c>
+      <c r="F344">
+        <v>1030523</v>
+      </c>
+      <c r="G344" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7">
+      <c r="B345" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C345">
+        <v>344</v>
+      </c>
+      <c r="D345">
+        <v>17993</v>
+      </c>
+      <c r="E345" t="s">
+        <v>30</v>
+      </c>
+      <c r="F345">
+        <v>1033066</v>
+      </c>
+      <c r="G345" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7">
+      <c r="B346" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C346">
+        <v>345</v>
+      </c>
+      <c r="D346">
+        <v>18508</v>
+      </c>
+      <c r="E346" t="s">
+        <v>30</v>
+      </c>
+      <c r="F346">
+        <v>1035296</v>
+      </c>
+      <c r="G346" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7">
+      <c r="B347" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C347">
+        <v>346</v>
+      </c>
+      <c r="D347">
+        <v>19824</v>
+      </c>
+      <c r="E347" t="s">
+        <v>30</v>
+      </c>
+      <c r="F347">
+        <v>1037071</v>
+      </c>
+      <c r="G347" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7">
+      <c r="B348" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C348">
+        <v>347</v>
+      </c>
+      <c r="D348">
+        <v>21818</v>
+      </c>
+      <c r="E348" t="s">
+        <v>30</v>
+      </c>
+      <c r="F348">
+        <v>1038581</v>
+      </c>
+      <c r="G348" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7">
+      <c r="B349" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C349">
+        <v>348</v>
+      </c>
+      <c r="D349">
+        <v>22666</v>
+      </c>
+      <c r="E349" t="s">
+        <v>30</v>
+      </c>
+      <c r="F349">
+        <v>1039492</v>
+      </c>
+      <c r="G349" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7">
+      <c r="B350" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C350">
+        <v>349</v>
+      </c>
+      <c r="D350">
+        <v>22760</v>
+      </c>
+      <c r="E350" t="s">
+        <v>30</v>
+      </c>
+      <c r="F350">
+        <v>1041071</v>
+      </c>
+      <c r="G350" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7">
+      <c r="B351" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C351">
+        <v>350</v>
+      </c>
+      <c r="D351">
+        <v>22440</v>
+      </c>
+      <c r="E351" t="s">
+        <v>30</v>
+      </c>
+      <c r="F351">
+        <v>1043336</v>
+      </c>
+      <c r="G351" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7">
+      <c r="B352" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C352">
+        <v>351</v>
+      </c>
+      <c r="D352">
+        <v>22773</v>
+      </c>
+      <c r="E352" t="s">
+        <v>30</v>
+      </c>
+      <c r="F352">
+        <v>1046376</v>
+      </c>
+      <c r="G352" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7">
+      <c r="B353" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C353">
+        <v>352</v>
+      </c>
+      <c r="D353">
+        <v>24059</v>
+      </c>
+      <c r="E353" t="s">
+        <v>30</v>
+      </c>
+      <c r="F353">
+        <v>1048960</v>
+      </c>
+      <c r="G353" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7">
+      <c r="B354" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C354">
+        <v>353</v>
+      </c>
+      <c r="D354">
+        <v>25287</v>
+      </c>
+      <c r="E354" t="s">
+        <v>30</v>
+      </c>
+      <c r="F354">
+        <v>1051356</v>
+      </c>
+      <c r="G354" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="355" spans="2:7">
+      <c r="B355" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C355">
+        <v>354</v>
+      </c>
+      <c r="D355">
+        <v>26385</v>
+      </c>
+      <c r="E355" t="s">
+        <v>30</v>
+      </c>
+      <c r="F355">
+        <v>1053793</v>
+      </c>
+      <c r="G355" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7">
+      <c r="B356" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C356">
+        <v>355</v>
+      </c>
+      <c r="D356">
+        <v>26324</v>
+      </c>
+      <c r="E356" t="s">
+        <v>30</v>
+      </c>
+      <c r="F356">
+        <v>1056288</v>
+      </c>
+      <c r="G356" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="357" spans="2:7">
+      <c r="B357" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C357">
+        <v>356</v>
+      </c>
+      <c r="D357">
+        <v>26181</v>
+      </c>
+      <c r="E357" t="s">
+        <v>30</v>
+      </c>
+      <c r="F357">
+        <v>1059756</v>
+      </c>
+      <c r="G357" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7">
+      <c r="B358" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C358">
+        <v>357</v>
+      </c>
+      <c r="D358">
+        <v>26095</v>
+      </c>
+      <c r="E358" t="s">
+        <v>30</v>
+      </c>
+      <c r="F358">
+        <v>1063496</v>
+      </c>
+      <c r="G358" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="359" spans="2:7">
+      <c r="B359" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C359">
+        <v>358</v>
+      </c>
+      <c r="D359">
+        <v>26730</v>
+      </c>
+      <c r="E359" t="s">
+        <v>30</v>
+      </c>
+      <c r="F359">
+        <v>1067295</v>
+      </c>
+      <c r="G359" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7">
+      <c r="B360" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C360">
+        <v>359</v>
+      </c>
+      <c r="D360">
+        <v>27574</v>
+      </c>
+      <c r="E360" t="s">
+        <v>30</v>
+      </c>
+      <c r="F360">
+        <v>1070908</v>
+      </c>
+      <c r="G360" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="361" spans="2:7">
+      <c r="B361" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C361">
+        <v>360</v>
+      </c>
+      <c r="D361">
+        <v>28023</v>
+      </c>
+      <c r="E361" t="s">
+        <v>30</v>
+      </c>
+      <c r="F361">
+        <v>1074451</v>
+      </c>
+      <c r="G361" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="362" spans="2:7">
+      <c r="B362" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C362">
+        <v>361</v>
+      </c>
+      <c r="D362">
+        <v>27993</v>
+      </c>
+      <c r="E362" t="s">
+        <v>30</v>
+      </c>
+      <c r="F362">
+        <v>1078252</v>
+      </c>
+      <c r="G362" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="363" spans="2:7">
+      <c r="B363" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C363">
+        <v>362</v>
+      </c>
+      <c r="D363">
+        <v>27686</v>
+      </c>
+      <c r="E363" t="s">
+        <v>30</v>
+      </c>
+      <c r="F363">
+        <v>1082434</v>
+      </c>
+      <c r="G363" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="364" spans="2:7">
+      <c r="B364" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C364">
+        <v>363</v>
+      </c>
+      <c r="D364">
+        <v>27503</v>
+      </c>
+      <c r="E364" t="s">
+        <v>30</v>
+      </c>
+      <c r="F364">
+        <v>1086998</v>
+      </c>
+      <c r="G364" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="365" spans="2:7">
+      <c r="B365" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C365">
+        <v>364</v>
+      </c>
+      <c r="D365">
+        <v>27608</v>
+      </c>
+      <c r="E365" t="s">
+        <v>30</v>
+      </c>
+      <c r="F365">
+        <v>1091504</v>
+      </c>
+      <c r="G365" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="366" spans="2:7">
+      <c r="B366" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>